--- a/new_data/Failure distribution.xlsx
+++ b/new_data/Failure distribution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5882825-3442-4C3A-AC73-035EE71D9C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FEEDFF-91D2-4D30-9EB1-C208990A892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="7155" windowWidth="16410" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="8730" windowWidth="16410" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGNE DE MONTAGE MOTG01" sheetId="1" r:id="rId1"/>
@@ -90,19 +90,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -432,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,6 +493,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>(B1-A1)*24</f>
+        <v>9264</v>
+      </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>

--- a/new_data/Failure distribution.xlsx
+++ b/new_data/Failure distribution.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FEEDFF-91D2-4D30-9EB1-C208990A892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D600F3-38D3-433A-B42E-B978360914B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="8730" windowWidth="16410" windowHeight="17625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGNE DE MONTAGE MOTG01" sheetId="1" r:id="rId1"/>
+    <sheet name="LIGNE DE MONTAGE MOTG02" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="11">
   <si>
     <t>Libellé parc</t>
   </si>
@@ -81,6 +82,12 @@
   </si>
   <si>
     <t>Failure time point</t>
+  </si>
+  <si>
+    <t>POSTE 15 : CONTRÔLE HAUTE TENSION</t>
+  </si>
+  <si>
+    <t>MM-TAILLE1</t>
   </si>
 </sst>
 </file>
@@ -426,20 +433,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>45139</v>
       </c>
@@ -456,7 +463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -464,11 +471,10 @@
         <v>45139.141961886577</v>
       </c>
       <c r="E2">
-        <f>(D2-$A$1)*24</f>
         <v>3.4070852778386325</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -476,11 +482,10 @@
         <v>45140.454707094897</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">(D3-$A$1)*24</f>
         <v>34.912970277538989</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -488,11 +493,10 @@
         <v>45142.320624108797</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
         <v>79.694978611136321</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>(B1-A1)*24</f>
         <v>9264</v>
@@ -504,11 +508,10 @@
         <v>45142.582761226848</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>85.986269444343634</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -516,11 +519,10 @@
         <v>45142.627925196757</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
         <v>87.070204722171184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -528,11 +530,10 @@
         <v>45142.705363229157</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
         <v>88.928717499773484</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -540,11 +541,10 @@
         <v>45142.725757905093</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
         <v>89.418189722229727</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -552,11 +552,10 @@
         <v>45142.786326122688</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
         <v>90.871826944523491</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -564,11 +563,10 @@
         <v>45145.510207094907</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
         <v>156.2449702777667</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -576,11 +574,10 @@
         <v>45145.599390659721</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
         <v>158.38537583331345</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -588,11 +585,10 @@
         <v>45146.47980760417</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>179.51538250007434</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -600,11 +596,10 @@
         <v>45148.015431979169</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
         <v>216.37036750005791</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -612,11 +607,10 @@
         <v>45161.839687534717</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
         <v>548.15250083321007</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -624,11 +618,10 @@
         <v>45166.308758831023</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
         <v>655.41021194454515</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -636,11 +629,10 @@
         <v>45167.622140590283</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
         <v>686.93137416680111</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -648,11 +640,10 @@
         <v>45170.117920717603</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
         <v>746.83009722246788</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -660,11 +651,10 @@
         <v>45175.986591550929</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
         <v>887.67819722229615</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -672,11 +662,10 @@
         <v>45177.036164583333</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>912.86794999998529</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -684,11 +673,10 @@
         <v>45183.695252465281</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
         <v>1072.6860591667355</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -696,11 +684,10 @@
         <v>45188.899822222222</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
         <v>1197.5957333333208</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -708,11 +695,10 @@
         <v>45190.041208252318</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
         <v>1224.9889980556327</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -720,11 +706,10 @@
         <v>45196.715541053243</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
         <v>1385.1729852778371</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -732,11 +717,10 @@
         <v>45197.235886539347</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
         <v>1397.6612769443309</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -744,11 +728,10 @@
         <v>45198.551510335637</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
         <v>1429.2362480552983</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -756,11 +739,10 @@
         <v>45198.803899965278</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>1435.2935991666745</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -768,11 +750,10 @@
         <v>45198.812758564818</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
         <v>1435.5062055556336</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -780,11 +761,10 @@
         <v>45205.296917326392</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
         <v>1591.1260158334044</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -792,11 +772,10 @@
         <v>45215.358153125002</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
         <v>1832.5956750000478</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -804,11 +783,10 @@
         <v>45230.354054664349</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
         <v>2192.4973119443748</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -816,11 +794,10 @@
         <v>45232.34715454861</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
         <v>2240.3317091666395</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -828,11 +805,10 @@
         <v>45232.848855902783</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
         <v>2252.3725416667876</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -840,11 +816,10 @@
         <v>45232.864716701391</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>2252.7532008333947</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -852,11 +827,10 @@
         <v>45240.755890196757</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
         <v>2442.1413647221634</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -864,11 +838,10 @@
         <v>45275.548157638892</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
         <v>3277.1557833334082</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -876,11 +849,10 @@
         <v>45281.245326076387</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
         <v>3413.8878258332843</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -888,11 +860,10 @@
         <v>45296.443208645833</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
         <v>3778.6370074999868</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -900,11 +871,10 @@
         <v>45302.100098414347</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
         <v>3914.4023619443178</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -912,11 +882,10 @@
         <v>45343.616271493047</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
         <v>4910.7905158331268</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -924,11 +893,10 @@
         <v>45355.88503020833</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>5205.2407249999233</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -936,11 +904,10 @@
         <v>45356.920041747682</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>5230.0810019443743</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -948,11 +915,10 @@
         <v>45358.423134340279</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
         <v>5266.1552241666941</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -960,11 +926,10 @@
         <v>45370.229891400457</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
         <v>5549.5173936109641</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -972,11 +937,10 @@
         <v>45371.301136226852</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
         <v>5575.22726944444</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -984,11 +948,10 @@
         <v>45372.550745405089</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
         <v>5605.2178897221456</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -996,11 +959,10 @@
         <v>45373.276967280093</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
         <v>5622.6472147222375</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -1008,11 +970,10 @@
         <v>45408.573160960637</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>6469.7558630552958</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -1020,11 +981,10 @@
         <v>45428.607951469909</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
         <v>6950.590835277806</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -1032,11 +992,10 @@
         <v>45428.698996909719</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
         <v>6952.7759258332662</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -1044,11 +1003,10 @@
         <v>45481.369202893518</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
         <v>8216.8608694444411</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -1056,11 +1014,10 @@
         <v>45497.441384953701</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
         <v>8602.5932388888323</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -1068,11 +1025,10 @@
         <v>45500.041200381937</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
         <v>8664.9888091664761</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -1080,11 +1036,10 @@
         <v>45506.089476539353</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
         <v>8810.1474369444768</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -1092,11 +1047,10 @@
         <v>45516.616918784719</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
         <v>9062.8060508332564</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -1104,11 +1058,10 @@
         <v>45516.616918784719</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
         <v>9062.8060508332564</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -1116,11 +1069,10 @@
         <v>45523.211807141197</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
         <v>9221.0833713887259</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -1128,11 +1080,10 @@
         <v>45524.245653854166</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
         <v>9245.8956924999948</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -1140,11 +1091,10 @@
         <v>45174.096375659719</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
         <v>842.31301583326422</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -1152,11 +1102,10 @@
         <v>45177.549712928238</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
         <v>925.19311027770163</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -1164,11 +1113,10 @@
         <v>45208.406736956022</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
         <v>1665.7616869445192</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -1176,11 +1124,10 @@
         <v>45209.425668518517</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
         <v>1690.2160444444162</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -1188,11 +1135,10 @@
         <v>45212.459260219897</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
         <v>1763.0222452775342</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -1200,11 +1146,10 @@
         <v>45215.743662997687</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
         <v>1841.8479119444964</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -1212,11 +1157,10 @@
         <v>45216.012338738423</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
         <v>1848.2961297221482</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -1224,11 +1168,10 @@
         <v>45216.713974803242</v>
       </c>
       <c r="E65">
-        <f t="shared" si="0"/>
         <v>1865.1353952778154</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -1236,11 +1179,10 @@
         <v>45217.363790543983</v>
       </c>
       <c r="E66">
-        <f t="shared" si="0"/>
         <v>1880.7309730555862</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -1248,11 +1190,10 @@
         <v>45218.422451157407</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="1">(D67-$A$1)*24</f>
         <v>1906.1388277777587</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -1260,11 +1201,10 @@
         <v>45219.845146030093</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
         <v>1940.2835047222325</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -1272,11 +1212,10 @@
         <v>45225.362342442131</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
         <v>2072.6962186111487</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -1284,11 +1223,10 @@
         <v>45240.799211724538</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
         <v>2443.1810813889024</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -1296,11 +1234,10 @@
         <v>45251.751915081019</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
         <v>2706.0459619444446</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -1308,11 +1245,10 @@
         <v>45302.24963510417</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
         <v>3917.9912425000803</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -1320,11 +1256,10 @@
         <v>45302.315411226853</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
         <v>3919.5698694444727</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -1332,11 +1267,10 @@
         <v>45309.546504317128</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
         <v>4093.1161036110716</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -1344,11 +1278,10 @@
         <v>45314.702489039351</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
         <v>4216.8597369444324</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -1356,11 +1289,10 @@
         <v>45317.75708171296</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
         <v>4290.169961111038</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -1368,11 +1300,10 @@
         <v>45324.131848761572</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
         <v>4443.1643702777219</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -1380,11 +1311,10 @@
         <v>45324.145630092593</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
         <v>4443.4951222222298</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -1392,11 +1322,10 @@
         <v>45365.55346894676</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
         <v>5437.2832547222497</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -1404,11 +1333,10 @@
         <v>45397.487114236108</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
         <v>6203.6907416665927</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -1416,11 +1344,10 @@
         <v>45411.731085497682</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
         <v>6545.5460519443732</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -1428,11 +1355,10 @@
         <v>45427.239315590283</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
         <v>6917.7435741667869</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -1440,11 +1366,10 @@
         <v>45428.35697403935</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
         <v>6944.5673769444111</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -1452,11 +1377,10 @@
         <v>45441.002162002318</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
         <v>7248.0518880556338</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -1464,11 +1388,10 @@
         <v>45447.608862581023</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
         <v>7406.6127019445412</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -1476,11 +1399,10 @@
         <v>45448.582641747693</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
         <v>7429.983401944628</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -1488,11 +1410,10 @@
         <v>45499.862513113418</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
         <v>8660.7003147220239</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>4</v>
       </c>
@@ -1500,11 +1421,10 @@
         <v>45139.311666122689</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
         <v>7.4799869445268996</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>4</v>
       </c>
@@ -1512,11 +1432,10 @@
         <v>45139.312841863422</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
         <v>7.5082047221367247</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -1524,11 +1443,10 @@
         <v>45147.256382094907</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
         <v>198.15317027777201</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>4</v>
       </c>
@@ -1536,11 +1454,10 @@
         <v>45156.35872045139</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
         <v>416.60929083335213</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>4</v>
       </c>
@@ -1548,11 +1465,10 @@
         <v>45177.440357372689</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
         <v>922.56857694452628</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>4</v>
       </c>
@@ -1560,11 +1476,10 @@
         <v>45229.83172962963</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
         <v>2179.9615111111198</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>4</v>
       </c>
@@ -1572,11 +1487,10 @@
         <v>45230.221345405087</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
         <v>2189.3122897220892</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>4</v>
       </c>
@@ -1584,11 +1498,10 @@
         <v>45232.811216238428</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
         <v>2251.4691897222656</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C96" t="s">
         <v>4</v>
       </c>
@@ -1596,11 +1509,10 @@
         <v>45236.639143900473</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
         <v>2343.3394536113483</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>4</v>
       </c>
@@ -1608,11 +1520,10 @@
         <v>45324.690494212962</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
         <v>4456.5718611110933</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C98" t="s">
         <v>4</v>
       </c>
@@ -1620,11 +1531,10 @@
         <v>45376.548309143524</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
         <v>5701.1594194445643</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C99" t="s">
         <v>4</v>
       </c>
@@ -1632,11 +1542,10 @@
         <v>45387.583782557871</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
         <v>5966.0107813889044</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>4</v>
       </c>
@@ -1644,11 +1553,10 @@
         <v>45523.366385729169</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
         <v>9224.793257500045</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C101" t="s">
         <v>4</v>
       </c>
@@ -1656,11 +1564,10 @@
         <v>45526.383797835653</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
         <v>9297.2111480556778</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>5</v>
       </c>
@@ -1668,11 +1575,10 @@
         <v>45141.361985532407</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
         <v>56.687652777764015</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>5</v>
       </c>
@@ -1680,11 +1586,10 @@
         <v>45160.262922453701</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
         <v>510.31013888883172</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>5</v>
       </c>
@@ -1692,11 +1597,10 @@
         <v>45168.228779594909</v>
       </c>
       <c r="E104">
-        <f t="shared" si="1"/>
         <v>701.49071027780883</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C105" t="s">
         <v>5</v>
       </c>
@@ -1704,11 +1608,10 @@
         <v>45209.842966168981</v>
       </c>
       <c r="E105">
-        <f t="shared" si="1"/>
         <v>1700.2311880555353</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>5</v>
       </c>
@@ -1716,11 +1619,10 @@
         <v>45213.037218668978</v>
       </c>
       <c r="E106">
-        <f t="shared" si="1"/>
         <v>1776.8932480554795</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C107" t="s">
         <v>5</v>
       </c>
@@ -1728,11 +1630,10 @@
         <v>45229.437923923608</v>
       </c>
       <c r="E107">
-        <f t="shared" si="1"/>
         <v>2170.5101741665858</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>5</v>
       </c>
@@ -1740,11 +1641,10 @@
         <v>45233.279921990739</v>
       </c>
       <c r="E108">
-        <f t="shared" si="1"/>
         <v>2262.7181277777418</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>5</v>
       </c>
@@ -1752,11 +1652,10 @@
         <v>45371.330950462972</v>
       </c>
       <c r="E109">
-        <f t="shared" si="1"/>
         <v>5575.9428111113375</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>5</v>
       </c>
@@ -1764,11 +1663,10 @@
         <v>45401.494374652779</v>
       </c>
       <c r="E110">
-        <f t="shared" si="1"/>
         <v>6299.8649916666909</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>5</v>
       </c>
@@ -1776,11 +1674,10 @@
         <v>45426.438786608793</v>
       </c>
       <c r="E111">
-        <f t="shared" si="1"/>
         <v>6898.5308786110254</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>5</v>
       </c>
@@ -1788,11 +1685,10 @@
         <v>45476.50002496528</v>
       </c>
       <c r="E112">
-        <f t="shared" si="1"/>
         <v>8100.0005991667276</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>5</v>
       </c>
@@ -1800,11 +1696,10 @@
         <v>45511.450261840277</v>
       </c>
       <c r="E113">
-        <f t="shared" si="1"/>
         <v>8938.8062841666397</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>5</v>
       </c>
@@ -1812,11 +1707,10 @@
         <v>45513.479655706018</v>
       </c>
       <c r="E114">
-        <f t="shared" si="1"/>
         <v>8987.5117369444342</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>6</v>
       </c>
@@ -1824,11 +1718,10 @@
         <v>45195.984263078702</v>
       </c>
       <c r="E115">
-        <f t="shared" si="1"/>
         <v>1367.6223138888599</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>6</v>
       </c>
@@ -1836,11 +1729,10 @@
         <v>45210.246101006953</v>
       </c>
       <c r="E116">
-        <f t="shared" si="1"/>
         <v>1709.9064241668675</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>6</v>
       </c>
@@ -1848,11 +1740,10 @@
         <v>45225.586248993059</v>
       </c>
       <c r="E117">
-        <f t="shared" si="1"/>
         <v>2078.0699758334085</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>6</v>
       </c>
@@ -1860,11 +1751,10 @@
         <v>45273.4359471875</v>
       </c>
       <c r="E118">
-        <f t="shared" si="1"/>
         <v>3226.4627324999892</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>6</v>
       </c>
@@ -1872,11 +1762,10 @@
         <v>45329.749446956019</v>
       </c>
       <c r="E119">
-        <f t="shared" si="1"/>
         <v>4577.9867269444512</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C120" t="s">
         <v>6</v>
       </c>
@@ -1884,11 +1773,10 @@
         <v>45369.916017858799</v>
       </c>
       <c r="E120">
-        <f t="shared" si="1"/>
         <v>5541.9844286111766</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>6</v>
       </c>
@@ -1896,11 +1784,10 @@
         <v>45439.559013541657</v>
       </c>
       <c r="E121">
-        <f t="shared" si="1"/>
         <v>7213.4163249997655</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>6</v>
       </c>
@@ -1908,11 +1795,10 @@
         <v>45457.47329927083</v>
       </c>
       <c r="E122">
-        <f t="shared" si="1"/>
         <v>7643.3591824999312</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>6</v>
       </c>
@@ -1920,11 +1806,10 @@
         <v>45462.543949270832</v>
       </c>
       <c r="E123">
-        <f t="shared" si="1"/>
         <v>7765.0547824999667</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>6</v>
       </c>
@@ -1932,11 +1817,10 @@
         <v>45499.616314895837</v>
       </c>
       <c r="E124">
-        <f t="shared" si="1"/>
         <v>8654.7915575000807</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>7</v>
       </c>
@@ -1944,11 +1828,10 @@
         <v>45198.087363391212</v>
       </c>
       <c r="E125">
-        <f t="shared" si="1"/>
         <v>1418.0967213890981</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>7</v>
       </c>
@@ -1956,11 +1839,10 @@
         <v>45198.164009872693</v>
       </c>
       <c r="E126">
-        <f t="shared" si="1"/>
         <v>1419.9362369446317</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>7</v>
       </c>
@@ -1968,11 +1850,10 @@
         <v>45198.19061917824</v>
       </c>
       <c r="E127">
-        <f t="shared" si="1"/>
         <v>1420.5748602777603</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>7</v>
       </c>
@@ -1980,11 +1861,10 @@
         <v>45204.35242265046</v>
       </c>
       <c r="E128">
-        <f t="shared" si="1"/>
         <v>1568.4581436110311</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>7</v>
       </c>
@@ -1992,11 +1872,10 @@
         <v>45218.442773761577</v>
       </c>
       <c r="E129">
-        <f t="shared" si="1"/>
         <v>1906.6265702778473</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>7</v>
       </c>
@@ -2004,11 +1883,10 @@
         <v>45237.129634490739</v>
       </c>
       <c r="E130">
-        <f t="shared" si="1"/>
         <v>2355.1112277777283</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>7</v>
       </c>
@@ -2016,11 +1894,10 @@
         <v>45295.217812268522</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E133" si="2">(D131-$A$1)*24</f>
         <v>3749.2274944445235</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>7</v>
       </c>
@@ -2028,11 +1905,10 @@
         <v>45348.232514814823</v>
       </c>
       <c r="E132">
-        <f t="shared" si="2"/>
         <v>5021.5803555557504</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C133" t="s">
         <v>7</v>
       </c>
@@ -2040,7 +1916,6 @@
         <v>45378.89883888889</v>
       </c>
       <c r="E133">
-        <f t="shared" si="2"/>
         <v>5757.572133333364</v>
       </c>
     </row>
@@ -2048,4 +1923,1374 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99781CD4-C90B-4ED2-A327-39B22B239BC2}">
+  <dimension ref="A1:E122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="41.21875" customWidth="1"/>
+    <col min="4" max="4" width="37.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B1" s="1">
+        <v>45525</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45147.598193321763</v>
+      </c>
+      <c r="E2">
+        <v>206.35663972230395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45160.931815706019</v>
+      </c>
+      <c r="E3">
+        <v>526.36357694445178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45169.839689618057</v>
+      </c>
+      <c r="E4">
+        <v>740.15255083335796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45170.802416631937</v>
+      </c>
+      <c r="E5">
+        <v>763.25799916649703</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45170.802416631937</v>
+      </c>
+      <c r="E6">
+        <v>763.25799916649703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45173.356616354169</v>
+      </c>
+      <c r="E7">
+        <v>824.55879250005819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45174.872627812503</v>
+      </c>
+      <c r="E8">
+        <v>860.94306750007672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45190.714611574083</v>
+      </c>
+      <c r="E9">
+        <v>1241.1506777780014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45195.084527280087</v>
+      </c>
+      <c r="E10">
+        <v>1346.0286547220894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45223.663456678238</v>
+      </c>
+      <c r="E11">
+        <v>2031.922960277705</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45246.439656249997</v>
+      </c>
+      <c r="E12">
+        <v>2578.551749999926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45247.264995057871</v>
+      </c>
+      <c r="E13">
+        <v>2598.3598813888966</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45252.259674618057</v>
+      </c>
+      <c r="E14">
+        <v>2718.2321908333688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45278.735130706023</v>
+      </c>
+      <c r="E15">
+        <v>3353.6431369445636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45309.026030636567</v>
+      </c>
+      <c r="E16">
+        <v>4080.6247352776118</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45311.459632754631</v>
+      </c>
+      <c r="E17">
+        <v>4139.031186111155</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45315.410506793982</v>
+      </c>
+      <c r="E18">
+        <v>4233.8521630555624</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45343.99278148148</v>
+      </c>
+      <c r="E19">
+        <v>4919.8267555555212</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45365.147153321763</v>
+      </c>
+      <c r="E20">
+        <v>5427.5316797223059</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45400.746678703697</v>
+      </c>
+      <c r="E21">
+        <v>6281.9202888887376</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45442.424319594909</v>
+      </c>
+      <c r="E22">
+        <v>7282.1836702778237</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45453.437911076391</v>
+      </c>
+      <c r="E23">
+        <v>7546.5098658333882</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45453.484183449073</v>
+      </c>
+      <c r="E24">
+        <v>7547.6204027777421</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45453.748022256943</v>
+      </c>
+      <c r="E25">
+        <v>7553.9525341666304</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45455.571222604172</v>
+      </c>
+      <c r="E26">
+        <v>7597.7093425001367</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45462.394842442132</v>
+      </c>
+      <c r="E27">
+        <v>7761.4762186111766</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45462.560059108793</v>
+      </c>
+      <c r="E28">
+        <v>7765.4414186110371</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45469.276216435188</v>
+      </c>
+      <c r="E29">
+        <v>7926.6291944445111</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="3">
+        <v>45470.290693831019</v>
+      </c>
+      <c r="E30">
+        <v>7950.9766519444529</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="3">
+        <v>45484.473436030094</v>
+      </c>
+      <c r="E31">
+        <v>8291.3624647222459</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45499.696079594913</v>
+      </c>
+      <c r="E32">
+        <v>8656.7059102779021</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="3">
+        <v>45503.637129085648</v>
+      </c>
+      <c r="E33">
+        <v>8751.2910980555462</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45146.274389351849</v>
+      </c>
+      <c r="E34">
+        <v>174.58534444437828</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="3">
+        <v>45148.57692777778</v>
+      </c>
+      <c r="E35">
+        <v>229.84626666671829</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45161.696476736113</v>
+      </c>
+      <c r="E36">
+        <v>544.71544166671811</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="3">
+        <v>45162.574138425924</v>
+      </c>
+      <c r="E37">
+        <v>565.77932222216623</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="3">
+        <v>45168.800103391201</v>
+      </c>
+      <c r="E38">
+        <v>715.20248138881288</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45168.808148414348</v>
+      </c>
+      <c r="E39">
+        <v>715.39556194434408</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45173.417981250001</v>
+      </c>
+      <c r="E40">
+        <v>826.03155000001425</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
+        <v>45197.712501006943</v>
+      </c>
+      <c r="E41">
+        <v>1409.1000241666334</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
+        <v>45202.288706168983</v>
+      </c>
+      <c r="E42">
+        <v>1518.9289480556035</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
+        <v>45203.54954255787</v>
+      </c>
+      <c r="E43">
+        <v>1549.1890213888837</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
+        <v>45223.615268715279</v>
+      </c>
+      <c r="E44">
+        <v>2030.7664491666947</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>45259.017392013891</v>
+      </c>
+      <c r="E45">
+        <v>2880.4174083333928</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
+        <v>45309.560322916674</v>
+      </c>
+      <c r="E46">
+        <v>4093.4477500001667</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45322.559109108799</v>
+      </c>
+      <c r="E47">
+        <v>4405.4186186111765</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
+        <v>45322.854079247692</v>
+      </c>
+      <c r="E48">
+        <v>4412.4979019446182</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="3">
+        <v>45328.089296180558</v>
+      </c>
+      <c r="E49">
+        <v>4538.1431083334028</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3">
+        <v>45328.431330243053</v>
+      </c>
+      <c r="E50">
+        <v>4546.3519258332672</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3">
+        <v>45334.228334988416</v>
+      </c>
+      <c r="E51">
+        <v>4685.4800397219951</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="3">
+        <v>45334.228334988416</v>
+      </c>
+      <c r="E52">
+        <v>4685.4800397219951</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>45357.550239004631</v>
+      </c>
+      <c r="E53">
+        <v>5245.2057361111511</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
+        <v>45365.563580983799</v>
+      </c>
+      <c r="E54">
+        <v>5437.5259436111664</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
+        <v>45411.483997951393</v>
+      </c>
+      <c r="E55">
+        <v>6539.615950833424</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
+        <v>45440.255204548608</v>
+      </c>
+      <c r="E56">
+        <v>7230.1249091665959</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
+        <v>45448.113523229164</v>
+      </c>
+      <c r="E57">
+        <v>7418.7245574999251</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3">
+        <v>45509.336072569437</v>
+      </c>
+      <c r="E58">
+        <v>8888.0657416664762</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3">
+        <v>45509.367329247689</v>
+      </c>
+      <c r="E59">
+        <v>8888.8159019445302</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45517.621878587961</v>
+      </c>
+      <c r="E60">
+        <v>9086.9250861110631</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="3">
+        <v>45155.614173611109</v>
+      </c>
+      <c r="E61">
+        <v>398.74016666662646</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="3">
+        <v>45160.647199270832</v>
+      </c>
+      <c r="E62">
+        <v>519.53278249996947</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3">
+        <v>45160.658507442131</v>
+      </c>
+      <c r="E63">
+        <v>519.80417861114256</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3">
+        <v>45161.02025011574</v>
+      </c>
+      <c r="E64">
+        <v>528.48600277776131</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3">
+        <v>45163.512853553242</v>
+      </c>
+      <c r="E65">
+        <v>588.308485277812</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3">
+        <v>45170.751989814817</v>
+      </c>
+      <c r="E66">
+        <v>762.047755555599</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3">
+        <v>45173.315700381943</v>
+      </c>
+      <c r="E67">
+        <v>823.57680916663958</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="3">
+        <v>45189.620662071757</v>
+      </c>
+      <c r="E68">
+        <v>1214.8958897221601</v>
+      </c>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="3">
+        <v>45229.619384178237</v>
+      </c>
+      <c r="E69">
+        <v>2174.8652202776866</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3">
+        <v>45243.919710069436</v>
+      </c>
+      <c r="E70">
+        <v>2518.0730416664737</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3">
+        <v>45247.971282905091</v>
+      </c>
+      <c r="E71">
+        <v>2615.3107897221926</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3">
+        <v>45267.817748032408</v>
+      </c>
+      <c r="E72">
+        <v>3091.625952777802</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="3">
+        <v>45308.241801620366</v>
+      </c>
+      <c r="E73">
+        <v>4061.803238888795</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="3">
+        <v>45329.762288506943</v>
+      </c>
+      <c r="E74">
+        <v>4578.2949241666356</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3">
+        <v>45349.150587384262</v>
+      </c>
+      <c r="E75">
+        <v>5043.6140972222784</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="3">
+        <v>45385.949413657407</v>
+      </c>
+      <c r="E76">
+        <v>5926.7859277777607</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3">
+        <v>45392.726317511573</v>
+      </c>
+      <c r="E77">
+        <v>6089.4316202777554</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="3">
+        <v>45392.733817743057</v>
+      </c>
+      <c r="E78">
+        <v>6089.6116258333786</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="3">
+        <v>45467.49709016204</v>
+      </c>
+      <c r="E79">
+        <v>7883.9301638889592</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="3">
+        <v>45476.113703206021</v>
+      </c>
+      <c r="E80">
+        <v>8090.7288769445149</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="3">
+        <v>45544.677267743064</v>
+      </c>
+      <c r="E81">
+        <v>9736.2544258335256</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="3">
+        <v>45281.415060960651</v>
+      </c>
+      <c r="E82">
+        <v>3417.9614630556316</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3">
+        <v>45301.863966701392</v>
+      </c>
+      <c r="E83">
+        <v>3908.7352008334128</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45311.289639270843</v>
+      </c>
+      <c r="E84">
+        <v>4134.9513425002224</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="3">
+        <v>45365.322289317133</v>
+      </c>
+      <c r="E85">
+        <v>5431.7349436111981</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="3">
+        <v>45392.224677928243</v>
+      </c>
+      <c r="E86">
+        <v>6077.3922702778364</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="3">
+        <v>45392.871765937503</v>
+      </c>
+      <c r="E87">
+        <v>6092.9223825000809</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3">
+        <v>45393.122992129633</v>
+      </c>
+      <c r="E88">
+        <v>6098.9518111111829</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="3">
+        <v>45397.500843020833</v>
+      </c>
+      <c r="E89">
+        <v>6204.0202324999846</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="3">
+        <v>45407.36575034722</v>
+      </c>
+      <c r="E90">
+        <v>6440.7780083332909</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="3">
+        <v>45414.355652048609</v>
+      </c>
+      <c r="E91">
+        <v>6608.5356491666171</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="3">
+        <v>45427.373614432872</v>
+      </c>
+      <c r="E92">
+        <v>6920.9667463889346</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="3">
+        <v>45430.35212546296</v>
+      </c>
+      <c r="E93">
+        <v>6992.4510111110285</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="3">
+        <v>45453.926303506953</v>
+      </c>
+      <c r="E94">
+        <v>7558.2312841668609</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="3">
+        <v>45467.550310763887</v>
+      </c>
+      <c r="E95">
+        <v>7885.2074583332869</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="3">
+        <v>45470.269346412038</v>
+      </c>
+      <c r="E96">
+        <v>7950.4643138889223</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="3">
+        <v>45532.815795752307</v>
+      </c>
+      <c r="E97">
+        <v>9451.579098055372</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="3">
+        <v>45539.99663642361</v>
+      </c>
+      <c r="E98">
+        <v>9623.9192741666338</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="3">
+        <v>45295.338130555552</v>
+      </c>
+      <c r="E99">
+        <v>3752.1151333332527</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="3">
+        <v>45315.749137997693</v>
+      </c>
+      <c r="E100">
+        <v>4241.9793119446258</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="3">
+        <v>45401.255158333333</v>
+      </c>
+      <c r="E101">
+        <v>6294.1238000000012</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="3">
+        <v>45404.702454432867</v>
+      </c>
+      <c r="E102">
+        <v>6376.8589063888066</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="3">
+        <v>45414.832138113423</v>
+      </c>
+      <c r="E103">
+        <v>6619.9713147221482</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="3">
+        <v>45474.395375578701</v>
+      </c>
+      <c r="E104">
+        <v>8049.489013888815</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="3">
+        <v>45474.400596493047</v>
+      </c>
+      <c r="E105">
+        <v>8049.6143158331397</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="3">
+        <v>45477.765899537037</v>
+      </c>
+      <c r="E106">
+        <v>8130.3815888888785</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="3">
+        <v>45484.168891550929</v>
+      </c>
+      <c r="E107">
+        <v>8284.0533972223056</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="3">
+        <v>45488.973125891207</v>
+      </c>
+      <c r="E108">
+        <v>8399.3550213889685</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="3">
+        <v>45499.883569907397</v>
+      </c>
+      <c r="E109">
+        <v>8661.2056777775288</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="3">
+        <v>45502.40199672454</v>
+      </c>
+      <c r="E110">
+        <v>8721.6479213889688</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="3">
+        <v>45503.510521608798</v>
+      </c>
+      <c r="E111">
+        <v>8748.2525186111452</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="3">
+        <v>45540.733256250001</v>
+      </c>
+      <c r="E112">
+        <v>9641.5981500000344</v>
+      </c>
+    </row>
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="3">
+        <v>45156.081084803242</v>
+      </c>
+      <c r="E113">
+        <v>409.94603527779691</v>
+      </c>
+    </row>
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="3">
+        <v>45160.813448414352</v>
+      </c>
+      <c r="E114">
+        <v>523.52276194444858</v>
+      </c>
+    </row>
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="3">
+        <v>45184.417852893523</v>
+      </c>
+      <c r="E115">
+        <v>1090.0284694445436</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="3">
+        <v>45232.23925150463</v>
+      </c>
+      <c r="E116">
+        <v>2237.742036111129</v>
+      </c>
+    </row>
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="3">
+        <v>45233.224967013892</v>
+      </c>
+      <c r="E117">
+        <v>2261.3992083334015</v>
+      </c>
+    </row>
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="3">
+        <v>45280.29473321759</v>
+      </c>
+      <c r="E118">
+        <v>3391.0735972221592</v>
+      </c>
+    </row>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="3">
+        <v>45398.746074571762</v>
+      </c>
+      <c r="E119">
+        <v>6233.905789722281</v>
+      </c>
+    </row>
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="3">
+        <v>45440.283853356479</v>
+      </c>
+      <c r="E120">
+        <v>7230.812480555498</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="3">
+        <v>45446.639365243063</v>
+      </c>
+      <c r="E121">
+        <v>7383.3447658335208</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="3">
+        <v>45523.370768981476</v>
+      </c>
+      <c r="E122">
+        <v>9224.8984555554343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/new_data/Failure distribution.xlsx
+++ b/new_data/Failure distribution.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\new_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\new_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D600F3-38D3-433A-B42E-B978360914B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A65DD9-F77F-417F-BBC4-C9E346B3D326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-1830" windowWidth="16410" windowHeight="14145" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIGNE DE MONTAGE MOTG01" sheetId="1" r:id="rId1"/>
@@ -433,20 +433,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.44140625" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="45.44140625" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>45139</v>
       </c>
@@ -463,7 +463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -474,7 +474,7 @@
         <v>3.4070852778386325</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -485,7 +485,7 @@
         <v>34.912970277538989</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -496,7 +496,7 @@
         <v>79.694978611136321</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>(B1-A1)*24</f>
         <v>9264</v>
@@ -511,7 +511,7 @@
         <v>85.986269444343634</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>2</v>
       </c>
@@ -522,7 +522,7 @@
         <v>87.070204722171184</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -533,7 +533,7 @@
         <v>88.928717499773484</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>2</v>
       </c>
@@ -544,7 +544,7 @@
         <v>89.418189722229727</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>2</v>
       </c>
@@ -555,7 +555,7 @@
         <v>90.871826944523491</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>2</v>
       </c>
@@ -566,7 +566,7 @@
         <v>156.2449702777667</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>2</v>
       </c>
@@ -577,7 +577,7 @@
         <v>158.38537583331345</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>2</v>
       </c>
@@ -588,7 +588,7 @@
         <v>179.51538250007434</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>2</v>
       </c>
@@ -599,7 +599,7 @@
         <v>216.37036750005791</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>2</v>
       </c>
@@ -610,7 +610,7 @@
         <v>548.15250083321007</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>2</v>
       </c>
@@ -621,7 +621,7 @@
         <v>655.41021194454515</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>2</v>
       </c>
@@ -632,7 +632,7 @@
         <v>686.93137416680111</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>2</v>
       </c>
@@ -643,7 +643,7 @@
         <v>746.83009722246788</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>2</v>
       </c>
@@ -654,7 +654,7 @@
         <v>887.67819722229615</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>2</v>
       </c>
@@ -665,7 +665,7 @@
         <v>912.86794999998529</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>2</v>
       </c>
@@ -676,7 +676,7 @@
         <v>1072.6860591667355</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>2</v>
       </c>
@@ -687,7 +687,7 @@
         <v>1197.5957333333208</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>2</v>
       </c>
@@ -698,7 +698,7 @@
         <v>1224.9889980556327</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>2</v>
       </c>
@@ -709,7 +709,7 @@
         <v>1385.1729852778371</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>2</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1397.6612769443309</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -731,7 +731,7 @@
         <v>1429.2362480552983</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>2</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1435.2935991666745</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>2</v>
       </c>
@@ -753,7 +753,7 @@
         <v>1435.5062055556336</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>2</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1591.1260158334044</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>2</v>
       </c>
@@ -775,7 +775,7 @@
         <v>1832.5956750000478</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>2</v>
       </c>
@@ -786,7 +786,7 @@
         <v>2192.4973119443748</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>2</v>
       </c>
@@ -797,7 +797,7 @@
         <v>2240.3317091666395</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>2</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2252.3725416667876</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -819,7 +819,7 @@
         <v>2252.7532008333947</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -830,7 +830,7 @@
         <v>2442.1413647221634</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -841,7 +841,7 @@
         <v>3277.1557833334082</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -852,7 +852,7 @@
         <v>3413.8878258332843</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -863,7 +863,7 @@
         <v>3778.6370074999868</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -874,7 +874,7 @@
         <v>3914.4023619443178</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -885,7 +885,7 @@
         <v>4910.7905158331268</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -896,7 +896,7 @@
         <v>5205.2407249999233</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -907,7 +907,7 @@
         <v>5230.0810019443743</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -918,7 +918,7 @@
         <v>5266.1552241666941</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -929,7 +929,7 @@
         <v>5549.5173936109641</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -940,7 +940,7 @@
         <v>5575.22726944444</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -951,7 +951,7 @@
         <v>5605.2178897221456</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -962,7 +962,7 @@
         <v>5622.6472147222375</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -973,7 +973,7 @@
         <v>6469.7558630552958</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -984,7 +984,7 @@
         <v>6950.590835277806</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -995,7 +995,7 @@
         <v>6952.7759258332662</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>8216.8608694444411</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>8602.5932388888323</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>8664.9888091664761</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>8810.1474369444768</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>9062.8060508332564</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>9062.8060508332564</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>9221.0833713887259</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>9245.8956924999948</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>3</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>842.31301583326422</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>925.19311027770163</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>1665.7616869445192</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>1690.2160444444162</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>1763.0222452775342</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>1841.8479119444964</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>3</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>1848.2961297221482</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>3</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>1865.1353952778154</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>3</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1880.7309730555862</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>1906.1388277777587</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>3</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>1940.2835047222325</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>2072.6962186111487</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>3</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>2443.1810813889024</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>3</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>2706.0459619444446</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>3917.9912425000803</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>3</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>3919.5698694444727</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>3</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>4093.1161036110716</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>4216.8597369444324</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>3</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>4290.169961111038</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>3</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>4443.1643702777219</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>3</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>4443.4951222222298</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>5437.2832547222497</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>3</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>6203.6907416665927</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>6545.5460519443732</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>6917.7435741667869</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>3</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>6944.5673769444111</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>7248.0518880556338</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>7406.6127019445412</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>7429.983401944628</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>8660.7003147220239</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>4</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>7.4799869445268996</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>4</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>7.5082047221367247</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>198.15317027777201</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>416.60929083335213</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>4</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>922.56857694452628</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>2179.9615111111198</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>4</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>2189.3122897220892</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>2251.4691897222656</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>2343.3394536113483</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>4</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>4456.5718611110933</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>4</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>5701.1594194445643</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>5966.0107813889044</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>9224.793257500045</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>4</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>9297.2111480556778</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>5</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>56.687652777764015</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>5</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>510.31013888883172</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>5</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>701.49071027780883</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>1700.2311880555353</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>5</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1776.8932480554795</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>5</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>2170.5101741665858</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>2262.7181277777418</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>5</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>5575.9428111113375</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>6299.8649916666909</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>6898.5308786110254</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>8100.0005991667276</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>5</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>8938.8062841666397</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>5</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>8987.5117369444342</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>6</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1367.6223138888599</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>6</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1709.9064241668675</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>6</v>
       </c>
@@ -1743,7 +1743,7 @@
         <v>2078.0699758334085</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>6</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>3226.4627324999892</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>6</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>4577.9867269444512</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>6</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>5541.9844286111766</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>7213.4163249997655</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>6</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>7643.3591824999312</v>
       </c>
     </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>6</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>7765.0547824999667</v>
       </c>
     </row>
-    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>6</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>8654.7915575000807</v>
       </c>
     </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
         <v>7</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>1418.0967213890981</v>
       </c>
     </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
         <v>7</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>1419.9362369446317</v>
       </c>
     </row>
-    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>1420.5748602777603</v>
       </c>
     </row>
-    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1568.4581436110311</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>7</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>1906.6265702778473</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>2355.1112277777283</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>3749.2274944445235</v>
       </c>
     </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C132" t="s">
         <v>7</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>5021.5803555557504</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C133" t="s">
         <v>7</v>
       </c>
@@ -1929,20 +1929,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99781CD4-C90B-4ED2-A327-39B22B239BC2}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="41.21875" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>45139</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>206.35663972230395</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>526.36357694445178</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>740.15255083335796</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>763.25799916649703</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>763.25799916649703</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>824.55879250005819</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>6</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>860.94306750007672</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>1241.1506777780014</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>1346.0286547220894</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>2031.922960277705</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>2578.551749999926</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>6</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>2598.3598813888966</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>2718.2321908333688</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>6</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>3353.6431369445636</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>6</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>4080.6247352776118</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>6</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>4139.031186111155</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>6</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>4233.8521630555624</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>6</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>4919.8267555555212</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>5427.5316797223059</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>6</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>6281.9202888887376</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>6</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>7282.1836702778237</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>6</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>7546.5098658333882</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>6</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>7547.6204027777421</v>
       </c>
     </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>6</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>7553.9525341666304</v>
       </c>
     </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>6</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>7597.7093425001367</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>6</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>7761.4762186111766</v>
       </c>
     </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>7765.4414186110371</v>
       </c>
     </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>6</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>7926.6291944445111</v>
       </c>
     </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>6</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>7950.9766519444529</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>6</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>8291.3624647222459</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>6</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>8656.7059102779021</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>6</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>8751.2910980555462</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>174.58534444437828</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>229.84626666671829</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>2</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>544.71544166671811</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>2</v>
       </c>
@@ -2355,7 +2355,7 @@
         <v>565.77932222216623</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>2</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>715.20248138881288</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>2</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>715.39556194434408</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>2</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>826.03155000001425</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>2</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1409.1000241666334</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>2</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>1518.9289480556035</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>2</v>
       </c>
@@ -2421,7 +2421,7 @@
         <v>1549.1890213888837</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>2030.7664491666947</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>2</v>
       </c>
@@ -2443,7 +2443,7 @@
         <v>2880.4174083333928</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>2</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>4093.4477500001667</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>2</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>4405.4186186111765</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>2</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>4412.4979019446182</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>2</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>4538.1431083334028</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>4546.3519258332672</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>2</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>4685.4800397219951</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>4685.4800397219951</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>2</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>5245.2057361111511</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>2</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>5437.5259436111664</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>2</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>6539.615950833424</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>2</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>7230.1249091665959</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>2</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>7418.7245574999251</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>2</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>8888.0657416664762</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>2</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>8888.8159019445302</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>2</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>9086.9250861110631</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>4</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>398.74016666662646</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>4</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>519.53278249996947</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>519.80417861114256</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>4</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>528.48600277776131</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>4</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>588.308485277812</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>4</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>762.047755555599</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>4</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>823.57680916663958</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>4</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>1214.8958897221601</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>4</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>2174.8652202776866</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>4</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>2518.0730416664737</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>4</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>2615.3107897221926</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>4</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>3091.625952777802</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>4</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>4061.803238888795</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>4578.2949241666356</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>5043.6140972222784</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>4</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>5926.7859277777607</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>4</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>6089.4316202777554</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>4</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>6089.6116258333786</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>4</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>7883.9301638889592</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>4</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>8090.7288769445149</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>4</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>9736.2544258335256</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>9</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>3417.9614630556316</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>9</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>3908.7352008334128</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>9</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>4134.9513425002224</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>9</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>5431.7349436111981</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>9</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>6077.3922702778364</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>9</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>6092.9223825000809</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>9</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>6098.9518111111829</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>6204.0202324999846</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
         <v>9</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>6440.7780083332909</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
         <v>9</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>6608.5356491666171</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>9</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>6920.9667463889346</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>9</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>6992.4510111110285</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>9</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>7558.2312841668609</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>7885.2074583332869</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>9</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>7950.4643138889223</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>9</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>9451.579098055372</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>9</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>9623.9192741666338</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>10</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>3752.1151333332527</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>10</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>4241.9793119446258</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>10</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>6294.1238000000012</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>10</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>6376.8589063888066</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>10</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>6619.9713147221482</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>10</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>8049.489013888815</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>10</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>8049.6143158331397</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>10</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>8130.3815888888785</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>10</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>8284.0533972223056</v>
       </c>
     </row>
-    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>10</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>8399.3550213889685</v>
       </c>
     </row>
-    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>10</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>8661.2056777775288</v>
       </c>
     </row>
-    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>10</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>8721.6479213889688</v>
       </c>
     </row>
-    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>10</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>8748.2525186111452</v>
       </c>
     </row>
-    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>10</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>9641.5981500000344</v>
       </c>
     </row>
-    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>3</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>409.94603527779691</v>
       </c>
     </row>
-    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>3</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>523.52276194444858</v>
       </c>
     </row>
-    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>3</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>1090.0284694445436</v>
       </c>
     </row>
-    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>3</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>2237.742036111129</v>
       </c>
     </row>
-    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>3</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>2261.3992083334015</v>
       </c>
     </row>
-    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C118" t="s">
         <v>3</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>3391.0735972221592</v>
       </c>
     </row>
-    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
         <v>3</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>6233.905789722281</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>3</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>7230.812480555498</v>
       </c>
     </row>
-    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>3</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>7383.3447658335208</v>
       </c>
     </row>
-    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>3</v>
       </c>
